--- a/Cucumber_Framework/test-output/ExcelReport/ExtentExcel.xlsx
+++ b/Cucumber_Framework/test-output/ExcelReport/ExtentExcel.xlsx
@@ -229,16 +229,16 @@
     <t>DEVICE NAME</t>
   </si>
   <si>
-    <t>Jun 08, 2023 1:58:49 PM</t>
+    <t>Jun 09, 2023 10:19:38 AM</t>
   </si>
   <si>
-    <t>Jun 08, 2023 1:56:45 PM</t>
+    <t>Jun 09, 2023 10:16:55 AM</t>
   </si>
   <si>
-    <t>Jun 08, 2023 1:58:01 PM</t>
+    <t>Jun 09, 2023 10:18:51 AM</t>
   </si>
   <si>
-    <t>1 m 15.899 s</t>
+    <t>1 m 55.259 s</t>
   </si>
   <si>
     <t>0%</t>
@@ -256,10 +256,10 @@
     <t>This test is to verify Time and directory functionality from OrangeHRM app menubar</t>
   </si>
   <si>
-    <t>1 m 8.774 s</t>
+    <t>1 m 36.559 s</t>
   </si>
   <si>
-    <t>1 m 8.803 s</t>
+    <t>1 m 36.593 s</t>
   </si>
   <si>
     <t>Then verify user is able to see view button in time page</t>
@@ -8922,7 +8922,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" password="D70D" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="FC5F" scenarios="true" objects="true"/>
   <mergeCells count="8">
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="B61:C61"/>
@@ -9329,7 +9329,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" password="8C69" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="E3FB" scenarios="true" objects="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
